--- a/src/planilhas/pdv.xlsx
+++ b/src/planilhas/pdv.xlsx
@@ -384,6 +384,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
@@ -398,7 +403,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>40001</v>
       </c>
       <c r="B2" s="1" t="str">
         <v>Outros</v>
@@ -409,7 +414,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>40002</v>
       </c>
       <c r="B3" s="1" t="str">
         <v>Outros</v>
@@ -420,7 +425,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>40003</v>
       </c>
       <c r="B4" s="1" t="str">
         <v>Outros</v>
@@ -431,7 +436,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>10</v>
+        <v>40004</v>
       </c>
       <c r="B5" s="1" t="str">
         <v>Outros</v>
@@ -442,7 +447,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>20</v>
+        <v>40005</v>
       </c>
       <c r="B6" s="1" t="str">
         <v>Outros</v>
@@ -453,7 +458,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>50</v>
+        <v>40006</v>
       </c>
       <c r="B7" s="1" t="str">
         <v>Outros</v>
@@ -24594,10 +24599,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
@@ -24613,19 +24624,142 @@
         <v>Cliente</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>50003</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>20/10/2022 11:56:1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <v>Cliente</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>50009</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <v>20/10/2022 11:56:1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <v>Cliente</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>50222</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <v>20/10/2022 11:57:12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <v>Cliente</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>50666</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <v>20/10/2022 11:57:12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <v>Cliente</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>51000</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>20/10/2022 11:57:12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <v>Cliente</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>52000</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <v>20/10/2022 11:57:12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <v>Cliente</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>51500</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <v>20/10/2022 11:57:12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <v>Cliente</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>51111</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <v>20/10/2022 11:57:12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <v>Cliente</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="35.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
@@ -24656,9 +24790,49 @@
         <v>Cliente</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>20/10/2022 11:56:1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <v>a-vista</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <v>admin</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <v>Cliente</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <v>20/10/2022 11:57:12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>220</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <v>admin</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <v>Cliente</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -24669,6 +24843,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">

--- a/src/planilhas/pdv.xlsx
+++ b/src/planilhas/pdv.xlsx
@@ -384,11 +384,6 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
@@ -24603,12 +24598,6 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
@@ -24749,17 +24738,6 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="35.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
@@ -24843,13 +24821,6 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
